--- a/resultados/pretratamiento-tablas-control/pretrat-espana-elo-facil-regular.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-espana-elo-facil-regular.xlsx
@@ -3830,10 +3830,10 @@
         <v>-0.19</v>
       </c>
       <c r="H2">
-        <v>-0.052</v>
+        <v>-0.064</v>
       </c>
       <c r="I2">
-        <v>0.959</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3859,10 +3859,10 @@
         <v>2.62</v>
       </c>
       <c r="H3">
-        <v>0.779</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="I3">
-        <v>0.437</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3888,10 +3888,10 @@
         <v>0.223</v>
       </c>
       <c r="H4">
-        <v>0.049</v>
+        <v>0.066</v>
       </c>
       <c r="I4">
-        <v>0.961</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3917,10 +3917,10 @@
         <v>2.212</v>
       </c>
       <c r="H5">
-        <v>0.441</v>
+        <v>0.42</v>
       </c>
       <c r="I5">
-        <v>0.66</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3946,10 +3946,10 @@
         <v>0.746</v>
       </c>
       <c r="H6">
-        <v>0.142</v>
+        <v>0.162</v>
       </c>
       <c r="I6">
-        <v>0.887</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3975,10 +3975,10 @@
         <v>-1.549</v>
       </c>
       <c r="H7">
-        <v>-0.294</v>
+        <v>-0.289</v>
       </c>
       <c r="I7">
-        <v>0.769</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4004,10 +4004,10 @@
         <v>0.369</v>
       </c>
       <c r="H8">
-        <v>0.216</v>
+        <v>0.288</v>
       </c>
       <c r="I8">
-        <v>0.83</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4033,10 +4033,10 @@
         <v>-1.645</v>
       </c>
       <c r="H9">
-        <v>-1.009</v>
+        <v>-1.06</v>
       </c>
       <c r="I9">
-        <v>0.314</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4062,10 +4062,10 @@
         <v>0.9330000000000001</v>
       </c>
       <c r="H10">
-        <v>0.47</v>
+        <v>0.572</v>
       </c>
       <c r="I10">
-        <v>0.639</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4091,10 +4091,10 @@
         <v>0.267</v>
       </c>
       <c r="H11">
-        <v>0.126</v>
+        <v>0.122</v>
       </c>
       <c r="I11">
-        <v>0.9</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4120,10 +4120,10 @@
         <v>-0.123</v>
       </c>
       <c r="H12">
-        <v>-0.055</v>
+        <v>-0.058</v>
       </c>
       <c r="I12">
-        <v>0.956</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4149,10 +4149,10 @@
         <v>0.522</v>
       </c>
       <c r="H13">
-        <v>0.235</v>
+        <v>0.223</v>
       </c>
       <c r="I13">
-        <v>0.8149999999999999</v>
+        <v>0.824</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4178,10 +4178,10 @@
         <v>-0.04</v>
       </c>
       <c r="H14">
-        <v>-1.407</v>
+        <v>-2.028</v>
       </c>
       <c r="I14">
-        <v>0.161</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4207,10 +4207,10 @@
         <v>-0.013</v>
       </c>
       <c r="H15">
-        <v>-0.458</v>
+        <v>-0.512</v>
       </c>
       <c r="I15">
-        <v>0.648</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4236,10 +4236,10 @@
         <v>0.032</v>
       </c>
       <c r="H16">
-        <v>0.747</v>
+        <v>1.168</v>
       </c>
       <c r="I16">
-        <v>0.456</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4265,10 +4265,10 @@
         <v>0.065</v>
       </c>
       <c r="H17">
-        <v>1.191</v>
+        <v>1.115</v>
       </c>
       <c r="I17">
-        <v>0.235</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4294,10 +4294,10 @@
         <v>0.106</v>
       </c>
       <c r="H18">
-        <v>1.806</v>
+        <v>1.684</v>
       </c>
       <c r="I18">
-        <v>0.073</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4323,10 +4323,10 @@
         <v>-0.057</v>
       </c>
       <c r="H19">
-        <v>-0.948</v>
+        <v>-0.727</v>
       </c>
       <c r="I19">
-        <v>0.345</v>
+        <v>0.467</v>
       </c>
     </row>
   </sheetData>
@@ -4412,10 +4412,10 @@
         <v>-6.948</v>
       </c>
       <c r="I2">
-        <v>-1.72</v>
+        <v>-1.529</v>
       </c>
       <c r="J2">
-        <v>0.08799999999999999</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4444,10 +4444,10 @@
         <v>3.616</v>
       </c>
       <c r="I3">
-        <v>1.024</v>
+        <v>0.949</v>
       </c>
       <c r="J3">
-        <v>0.308</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4476,10 +4476,10 @@
         <v>-0.234</v>
       </c>
       <c r="I4">
-        <v>-0.045</v>
+        <v>-0.054</v>
       </c>
       <c r="J4">
-        <v>0.964</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4508,10 +4508,10 @@
         <v>1.535</v>
       </c>
       <c r="I5">
-        <v>0.264</v>
+        <v>0.246</v>
       </c>
       <c r="J5">
-        <v>0.793</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4540,10 +4540,10 @@
         <v>11.552</v>
       </c>
       <c r="I6">
-        <v>1.938</v>
+        <v>2.096</v>
       </c>
       <c r="J6">
-        <v>0.055</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4572,10 +4572,10 @@
         <v>2.209</v>
       </c>
       <c r="I7">
-        <v>0.344</v>
+        <v>0.282</v>
       </c>
       <c r="J7">
-        <v>0.731</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4604,10 +4604,10 @@
         <v>3.431</v>
       </c>
       <c r="I8">
-        <v>1.751</v>
+        <v>2.119</v>
       </c>
       <c r="J8">
-        <v>0.083</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4636,10 +4636,10 @@
         <v>-0.707</v>
       </c>
       <c r="I9">
-        <v>-0.367</v>
+        <v>-0.324</v>
       </c>
       <c r="J9">
-        <v>0.715</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4668,10 +4668,10 @@
         <v>1.952</v>
       </c>
       <c r="I10">
-        <v>0.824</v>
+        <v>0.882</v>
       </c>
       <c r="J10">
-        <v>0.412</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4700,10 +4700,10 @@
         <v>-0.251</v>
       </c>
       <c r="I11">
-        <v>-0.099</v>
+        <v>-0.097</v>
       </c>
       <c r="J11">
-        <v>0.921</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4732,10 +4732,10 @@
         <v>-4.866</v>
       </c>
       <c r="I12">
-        <v>-1.884</v>
+        <v>-1.81</v>
       </c>
       <c r="J12">
-        <v>0.062</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4764,10 +4764,10 @@
         <v>-1.428</v>
       </c>
       <c r="I13">
-        <v>-0.52</v>
+        <v>-0.438</v>
       </c>
       <c r="J13">
-        <v>0.604</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4796,10 +4796,10 @@
         <v>-0.073</v>
       </c>
       <c r="I14">
-        <v>-2.174</v>
+        <v>-1.801</v>
       </c>
       <c r="J14">
-        <v>0.032</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4828,10 +4828,10 @@
         <v>-0.022</v>
       </c>
       <c r="I15">
-        <v>-0.631</v>
+        <v>-0.448</v>
       </c>
       <c r="J15">
-        <v>0.529</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4860,10 +4860,10 @@
         <v>-0.013</v>
       </c>
       <c r="I16">
-        <v>-0.3</v>
+        <v>-0.362</v>
       </c>
       <c r="J16">
-        <v>0.765</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4892,10 +4892,10 @@
         <v>0.081</v>
       </c>
       <c r="I17">
-        <v>1.295</v>
+        <v>0.987</v>
       </c>
       <c r="J17">
-        <v>0.198</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4924,10 +4924,10 @@
         <v>0.074</v>
       </c>
       <c r="I18">
-        <v>1.071</v>
+        <v>1.313</v>
       </c>
       <c r="J18">
-        <v>0.287</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4956,10 +4956,10 @@
         <v>0.013</v>
       </c>
       <c r="I19">
-        <v>0.189</v>
+        <v>0.156</v>
       </c>
       <c r="J19">
-        <v>0.85</v>
+        <v>0.876</v>
       </c>
     </row>
   </sheetData>
@@ -5052,10 +5052,10 @@
         <v>-8.115</v>
       </c>
       <c r="J2">
-        <v>-1.798</v>
+        <v>-1.682</v>
       </c>
       <c r="K2">
-        <v>0.075</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5087,10 +5087,10 @@
         <v>0.763</v>
       </c>
       <c r="J3">
-        <v>0.192</v>
+        <v>0.162</v>
       </c>
       <c r="K3">
-        <v>0.848</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5122,10 +5122,10 @@
         <v>0.079</v>
       </c>
       <c r="J4">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="K4">
-        <v>0.989</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5157,10 +5157,10 @@
         <v>0.627</v>
       </c>
       <c r="J5">
-        <v>0.096</v>
+        <v>0.091</v>
       </c>
       <c r="K5">
-        <v>0.923</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5192,10 +5192,10 @@
         <v>10.184</v>
       </c>
       <c r="J6">
-        <v>1.517</v>
+        <v>1.447</v>
       </c>
       <c r="K6">
-        <v>0.132</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5227,10 +5227,10 @@
         <v>0.239</v>
       </c>
       <c r="J7">
-        <v>0.033</v>
+        <v>0.023</v>
       </c>
       <c r="K7">
-        <v>0.974</v>
+        <v>0.982</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5262,10 +5262,10 @@
         <v>3.67</v>
       </c>
       <c r="J8">
-        <v>1.671</v>
+        <v>2.124</v>
       </c>
       <c r="K8">
-        <v>0.098</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5297,10 +5297,10 @@
         <v>0.602</v>
       </c>
       <c r="J9">
-        <v>0.279</v>
+        <v>0.219</v>
       </c>
       <c r="K9">
-        <v>0.781</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5332,10 +5332,10 @@
         <v>1.628</v>
       </c>
       <c r="J10">
-        <v>0.613</v>
+        <v>0.602</v>
       </c>
       <c r="K10">
-        <v>0.541</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5367,10 +5367,10 @@
         <v>0.22</v>
       </c>
       <c r="J11">
-        <v>0.078</v>
+        <v>0.081</v>
       </c>
       <c r="K11">
-        <v>0.9379999999999999</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5402,10 +5402,10 @@
         <v>-4.078</v>
       </c>
       <c r="J12">
-        <v>-1.401</v>
+        <v>-1.156</v>
       </c>
       <c r="K12">
-        <v>0.164</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5437,10 +5437,10 @@
         <v>-1.065</v>
       </c>
       <c r="J13">
-        <v>-0.346</v>
+        <v>-0.243</v>
       </c>
       <c r="K13">
-        <v>0.73</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5472,10 +5472,10 @@
         <v>-0.059</v>
       </c>
       <c r="J14">
-        <v>-1.569</v>
+        <v>-1.571</v>
       </c>
       <c r="K14">
-        <v>0.12</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5507,10 +5507,10 @@
         <v>-0.015</v>
       </c>
       <c r="J15">
-        <v>-0.398</v>
+        <v>-0.288</v>
       </c>
       <c r="K15">
-        <v>0.6909999999999999</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5577,10 +5577,10 @@
         <v>0.078</v>
       </c>
       <c r="J17">
-        <v>1.117</v>
+        <v>0.9</v>
       </c>
       <c r="K17">
-        <v>0.267</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5612,10 +5612,10 @@
         <v>0.039</v>
       </c>
       <c r="J18">
-        <v>0.509</v>
+        <v>0.694</v>
       </c>
       <c r="K18">
-        <v>0.612</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5647,10 +5647,10 @@
         <v>-0.043</v>
       </c>
       <c r="J19">
-        <v>-0.578</v>
+        <v>-0.493</v>
       </c>
       <c r="K19">
-        <v>0.5649999999999999</v>
+        <v>0.622</v>
       </c>
     </row>
   </sheetData>
@@ -5743,10 +5743,10 @@
         <v>-7.672</v>
       </c>
       <c r="J2">
-        <v>-1.377</v>
+        <v>-1.053</v>
       </c>
       <c r="K2">
-        <v>0.171</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5778,10 +5778,10 @@
         <v>0.8090000000000001</v>
       </c>
       <c r="J3">
-        <v>0.166</v>
+        <v>0.13</v>
       </c>
       <c r="K3">
-        <v>0.868</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5813,10 +5813,10 @@
         <v>-2.757</v>
       </c>
       <c r="J4">
-        <v>-0.385</v>
+        <v>-0.399</v>
       </c>
       <c r="K4">
-        <v>0.701</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5848,10 +5848,10 @@
         <v>-2.976</v>
       </c>
       <c r="J5">
-        <v>-0.372</v>
+        <v>-0.323</v>
       </c>
       <c r="K5">
-        <v>0.71</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5883,10 +5883,10 @@
         <v>8.577</v>
       </c>
       <c r="J6">
-        <v>1.036</v>
+        <v>1.047</v>
       </c>
       <c r="K6">
-        <v>0.302</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5918,10 +5918,10 @@
         <v>-0.061</v>
       </c>
       <c r="J7">
-        <v>-0.007</v>
+        <v>-0.004</v>
       </c>
       <c r="K7">
-        <v>0.994</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5953,10 +5953,10 @@
         <v>3.141</v>
       </c>
       <c r="J8">
-        <v>1.158</v>
+        <v>1.03</v>
       </c>
       <c r="K8">
-        <v>0.249</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5988,10 +5988,10 @@
         <v>0.191</v>
       </c>
       <c r="J9">
-        <v>0.07199999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="K9">
-        <v>0.9429999999999999</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6023,10 +6023,10 @@
         <v>3.25</v>
       </c>
       <c r="J10">
-        <v>1.001</v>
+        <v>0.854</v>
       </c>
       <c r="K10">
-        <v>0.319</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6058,10 +6058,10 @@
         <v>2.419</v>
       </c>
       <c r="J11">
-        <v>0.699</v>
+        <v>0.648</v>
       </c>
       <c r="K11">
-        <v>0.486</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6093,10 +6093,10 @@
         <v>-3.965</v>
       </c>
       <c r="J12">
-        <v>-1.107</v>
+        <v>-1.021</v>
       </c>
       <c r="K12">
-        <v>0.271</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6128,10 +6128,10 @@
         <v>-0.596</v>
       </c>
       <c r="J13">
-        <v>-0.158</v>
+        <v>-0.106</v>
       </c>
       <c r="K13">
-        <v>0.875</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6163,10 +6163,10 @@
         <v>-0.079</v>
       </c>
       <c r="J14">
-        <v>-1.699</v>
+        <v>-1.552</v>
       </c>
       <c r="K14">
-        <v>0.092</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6198,10 +6198,10 @@
         <v>-0.004</v>
       </c>
       <c r="J15">
-        <v>-0.083</v>
+        <v>-0.076</v>
       </c>
       <c r="K15">
-        <v>0.9340000000000001</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6233,10 +6233,10 @@
         <v>-0.02</v>
       </c>
       <c r="J16">
-        <v>-0.333</v>
+        <v>-0.411</v>
       </c>
       <c r="K16">
-        <v>0.74</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6268,10 +6268,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="J17">
-        <v>0.8120000000000001</v>
+        <v>0.723</v>
       </c>
       <c r="K17">
-        <v>0.419</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6303,10 +6303,10 @@
         <v>0.005</v>
       </c>
       <c r="J18">
-        <v>0.055</v>
+        <v>0.074</v>
       </c>
       <c r="K18">
-        <v>0.956</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6338,10 +6338,10 @@
         <v>-0.074</v>
       </c>
       <c r="J19">
-        <v>-0.8120000000000001</v>
+        <v>-0.738</v>
       </c>
       <c r="K19">
-        <v>0.419</v>
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
@@ -6427,10 +6427,10 @@
         <v>-7.236</v>
       </c>
       <c r="I2">
-        <v>-1.764</v>
+        <v>-2.282</v>
       </c>
       <c r="J2">
-        <v>0.082</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6459,10 +6459,10 @@
         <v>-1.238</v>
       </c>
       <c r="I3">
-        <v>-0.378</v>
+        <v>-0.437</v>
       </c>
       <c r="J3">
-        <v>0.707</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6491,10 +6491,10 @@
         <v>-3.382</v>
       </c>
       <c r="I4">
-        <v>-0.6929999999999999</v>
+        <v>-0.746</v>
       </c>
       <c r="J4">
-        <v>0.49</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6523,10 +6523,10 @@
         <v>10.227</v>
       </c>
       <c r="I5">
-        <v>1.746</v>
+        <v>1.511</v>
       </c>
       <c r="J5">
-        <v>0.08500000000000001</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6555,10 +6555,10 @@
         <v>8.946</v>
       </c>
       <c r="I6">
-        <v>1.677</v>
+        <v>1.251</v>
       </c>
       <c r="J6">
-        <v>0.098</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6587,10 +6587,10 @@
         <v>2.169</v>
       </c>
       <c r="I7">
-        <v>0.399</v>
+        <v>0.322</v>
       </c>
       <c r="J7">
-        <v>0.6909999999999999</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6619,10 +6619,10 @@
         <v>3.156</v>
       </c>
       <c r="I8">
-        <v>1.574</v>
+        <v>1.995</v>
       </c>
       <c r="J8">
-        <v>0.119</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6651,10 +6651,10 @@
         <v>1.425</v>
       </c>
       <c r="I9">
-        <v>0.801</v>
+        <v>0.967</v>
       </c>
       <c r="J9">
-        <v>0.425</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6683,10 +6683,10 @@
         <v>3.152</v>
       </c>
       <c r="I10">
-        <v>1.426</v>
+        <v>1.344</v>
       </c>
       <c r="J10">
-        <v>0.158</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6715,10 +6715,10 @@
         <v>-4.02</v>
       </c>
       <c r="I11">
-        <v>-1.61</v>
+        <v>-1.444</v>
       </c>
       <c r="J11">
-        <v>0.111</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6747,10 +6747,10 @@
         <v>-4.864</v>
       </c>
       <c r="I12">
-        <v>-2.143</v>
+        <v>-1.753</v>
       </c>
       <c r="J12">
-        <v>0.035</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6779,10 +6779,10 @@
         <v>-1.274</v>
       </c>
       <c r="I13">
-        <v>-0.5669999999999999</v>
+        <v>-0.509</v>
       </c>
       <c r="J13">
-        <v>0.572</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6811,10 +6811,10 @@
         <v>-0.06</v>
       </c>
       <c r="I14">
-        <v>-1.834</v>
+        <v>-2.584</v>
       </c>
       <c r="J14">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6843,10 +6843,10 @@
         <v>-0.026</v>
       </c>
       <c r="I15">
-        <v>-0.783</v>
+        <v>-0.575</v>
       </c>
       <c r="J15">
-        <v>0.436</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6875,10 +6875,10 @@
         <v>-0.022</v>
       </c>
       <c r="I16">
-        <v>-0.617</v>
+        <v>-0.448</v>
       </c>
       <c r="J16">
-        <v>0.539</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6907,10 +6907,10 @@
         <v>-0.005</v>
       </c>
       <c r="I17">
-        <v>-0.076</v>
+        <v>-0.055</v>
       </c>
       <c r="J17">
-        <v>0.9399999999999999</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6939,10 +6939,10 @@
         <v>0.135</v>
       </c>
       <c r="I18">
-        <v>2.031</v>
+        <v>2.479</v>
       </c>
       <c r="J18">
-        <v>0.046</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6971,10 +6971,10 @@
         <v>0.036</v>
       </c>
       <c r="I19">
-        <v>0.535</v>
+        <v>0.362</v>
       </c>
       <c r="J19">
-        <v>0.594</v>
+        <v>0.717</v>
       </c>
     </row>
   </sheetData>
@@ -7060,10 +7060,10 @@
         <v>-8.868</v>
       </c>
       <c r="I2">
-        <v>-1.821</v>
+        <v>-2.246</v>
       </c>
       <c r="J2">
-        <v>0.07199999999999999</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7092,10 +7092,10 @@
         <v>-0.885</v>
       </c>
       <c r="I3">
-        <v>-0.227</v>
+        <v>-0.251</v>
       </c>
       <c r="J3">
-        <v>0.821</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7124,10 +7124,10 @@
         <v>-7.483</v>
       </c>
       <c r="I4">
-        <v>-1.3</v>
+        <v>-1.216</v>
       </c>
       <c r="J4">
-        <v>0.197</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7156,10 +7156,10 @@
         <v>5.964</v>
       </c>
       <c r="I5">
-        <v>0.845</v>
+        <v>0.665</v>
       </c>
       <c r="J5">
-        <v>0.401</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7188,10 +7188,10 @@
         <v>15.138</v>
       </c>
       <c r="I6">
-        <v>2.432</v>
+        <v>1.93</v>
       </c>
       <c r="J6">
-        <v>0.017</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7220,10 +7220,10 @@
         <v>6.822</v>
       </c>
       <c r="I7">
-        <v>1.063</v>
+        <v>0.953</v>
       </c>
       <c r="J7">
-        <v>0.291</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7252,10 +7252,10 @@
         <v>3.564</v>
       </c>
       <c r="I8">
-        <v>1.493</v>
+        <v>2.155</v>
       </c>
       <c r="J8">
-        <v>0.139</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7284,10 +7284,10 @@
         <v>1.609</v>
       </c>
       <c r="I9">
-        <v>0.761</v>
+        <v>0.739</v>
       </c>
       <c r="J9">
-        <v>0.449</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7316,10 +7316,10 @@
         <v>5.284</v>
       </c>
       <c r="I10">
-        <v>2.038</v>
+        <v>1.672</v>
       </c>
       <c r="J10">
-        <v>0.045</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7348,10 +7348,10 @@
         <v>-2.119</v>
       </c>
       <c r="I11">
-        <v>-0.705</v>
+        <v>-0.573</v>
       </c>
       <c r="J11">
-        <v>0.483</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7380,10 +7380,10 @@
         <v>-7.461</v>
       </c>
       <c r="I12">
-        <v>-2.82</v>
+        <v>-2.379</v>
       </c>
       <c r="J12">
-        <v>0.006</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7412,10 +7412,10 @@
         <v>-3.483</v>
       </c>
       <c r="I13">
-        <v>-1.317</v>
+        <v>-1.157</v>
       </c>
       <c r="J13">
-        <v>0.192</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7444,10 +7444,10 @@
         <v>-0.07099999999999999</v>
       </c>
       <c r="I14">
-        <v>-1.831</v>
+        <v>-1.953</v>
       </c>
       <c r="J14">
-        <v>0.07099999999999999</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7476,10 +7476,10 @@
         <v>0.003</v>
       </c>
       <c r="I15">
-        <v>0.083</v>
+        <v>0.063</v>
       </c>
       <c r="J15">
-        <v>0.9340000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7508,10 +7508,10 @@
         <v>-0.008</v>
       </c>
       <c r="I16">
-        <v>-0.185</v>
+        <v>-0.14</v>
       </c>
       <c r="J16">
-        <v>0.854</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7540,10 +7540,10 @@
         <v>0.106</v>
       </c>
       <c r="I17">
-        <v>1.331</v>
+        <v>0.964</v>
       </c>
       <c r="J17">
-        <v>0.187</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7572,10 +7572,10 @@
         <v>0.166</v>
       </c>
       <c r="I18">
-        <v>2.112</v>
+        <v>2.152</v>
       </c>
       <c r="J18">
-        <v>0.038</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7604,10 +7604,10 @@
         <v>-0.003</v>
       </c>
       <c r="I19">
-        <v>-0.039</v>
+        <v>-0.032</v>
       </c>
       <c r="J19">
-        <v>0.969</v>
+        <v>0.975</v>
       </c>
     </row>
   </sheetData>
@@ -7700,10 +7700,10 @@
         <v>-13.199</v>
       </c>
       <c r="J2">
-        <v>-2.288</v>
+        <v>-2.655</v>
       </c>
       <c r="K2">
-        <v>0.025</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7735,10 +7735,10 @@
         <v>-2.104</v>
       </c>
       <c r="J3">
-        <v>-0.451</v>
+        <v>-0.553</v>
       </c>
       <c r="K3">
-        <v>0.653</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7770,10 +7770,10 @@
         <v>-3.707</v>
       </c>
       <c r="J4">
-        <v>-0.533</v>
+        <v>-0.587</v>
       </c>
       <c r="K4">
-        <v>0.596</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7805,10 +7805,10 @@
         <v>6.145</v>
       </c>
       <c r="J5">
-        <v>0.726</v>
+        <v>0.59</v>
       </c>
       <c r="K5">
-        <v>0.47</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7840,10 +7840,10 @@
         <v>17.691</v>
       </c>
       <c r="J6">
-        <v>2.367</v>
+        <v>1.743</v>
       </c>
       <c r="K6">
-        <v>0.02</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7875,10 +7875,10 @@
         <v>7.87</v>
       </c>
       <c r="J7">
-        <v>1.023</v>
+        <v>0.64</v>
       </c>
       <c r="K7">
-        <v>0.309</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7910,10 +7910,10 @@
         <v>5.205</v>
       </c>
       <c r="J8">
-        <v>1.832</v>
+        <v>2.73</v>
       </c>
       <c r="K8">
-        <v>0.07099999999999999</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7945,10 +7945,10 @@
         <v>2.039</v>
       </c>
       <c r="J9">
-        <v>0.805</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K9">
-        <v>0.423</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7980,10 +7980,10 @@
         <v>3.625</v>
       </c>
       <c r="J10">
-        <v>1.147</v>
+        <v>1.144</v>
       </c>
       <c r="K10">
-        <v>0.255</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8015,10 +8015,10 @@
         <v>-2.466</v>
       </c>
       <c r="J11">
-        <v>-0.6840000000000001</v>
+        <v>-0.63</v>
       </c>
       <c r="K11">
-        <v>0.496</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8050,10 +8050,10 @@
         <v>-8.247999999999999</v>
       </c>
       <c r="J12">
-        <v>-2.583</v>
+        <v>-2.038</v>
       </c>
       <c r="K12">
-        <v>0.012</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8085,10 +8085,10 @@
         <v>-3.911</v>
       </c>
       <c r="J13">
-        <v>-1.233</v>
+        <v>-0.759</v>
       </c>
       <c r="K13">
-        <v>0.221</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8120,10 +8120,10 @@
         <v>-0.07099999999999999</v>
       </c>
       <c r="J14">
-        <v>-1.518</v>
+        <v>-1.541</v>
       </c>
       <c r="K14">
-        <v>0.133</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8155,10 +8155,10 @@
         <v>-0.001</v>
       </c>
       <c r="J15">
-        <v>-0.02</v>
+        <v>-0.015</v>
       </c>
       <c r="K15">
-        <v>0.984</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8190,10 +8190,10 @@
         <v>-0.019</v>
       </c>
       <c r="J16">
-        <v>-0.385</v>
+        <v>-0.297</v>
       </c>
       <c r="K16">
-        <v>0.701</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8225,10 +8225,10 @@
         <v>0.134</v>
       </c>
       <c r="J17">
-        <v>1.409</v>
+        <v>0.947</v>
       </c>
       <c r="K17">
-        <v>0.163</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8260,10 +8260,10 @@
         <v>0.132</v>
       </c>
       <c r="J18">
-        <v>1.382</v>
+        <v>1.376</v>
       </c>
       <c r="K18">
-        <v>0.171</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8295,10 +8295,10 @@
         <v>-0.073</v>
       </c>
       <c r="J19">
-        <v>-0.771</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="K19">
-        <v>0.443</v>
+        <v>0.576</v>
       </c>
     </row>
   </sheetData>
@@ -8391,10 +8391,10 @@
         <v>-12.842</v>
       </c>
       <c r="J2">
-        <v>-1.772</v>
+        <v>-1.898</v>
       </c>
       <c r="K2">
-        <v>0.08</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8426,10 +8426,10 @@
         <v>-4.85</v>
       </c>
       <c r="J3">
-        <v>-0.841</v>
+        <v>-0.947</v>
       </c>
       <c r="K3">
-        <v>0.403</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8461,10 +8461,10 @@
         <v>-14.552</v>
       </c>
       <c r="J4">
-        <v>-1.713</v>
+        <v>-1.663</v>
       </c>
       <c r="K4">
-        <v>0.091</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8496,10 +8496,10 @@
         <v>2.718</v>
       </c>
       <c r="J5">
-        <v>0.258</v>
+        <v>0.181</v>
       </c>
       <c r="K5">
-        <v>0.797</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8531,10 +8531,10 @@
         <v>22.913</v>
       </c>
       <c r="J6">
-        <v>2.479</v>
+        <v>2.076</v>
       </c>
       <c r="K6">
-        <v>0.015</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8566,10 +8566,10 @@
         <v>8.576000000000001</v>
       </c>
       <c r="J7">
-        <v>0.897</v>
+        <v>0.591</v>
       </c>
       <c r="K7">
-        <v>0.372</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8601,10 +8601,10 @@
         <v>4.38</v>
       </c>
       <c r="J8">
-        <v>1.229</v>
+        <v>2.071</v>
       </c>
       <c r="K8">
-        <v>0.223</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8636,10 +8636,10 @@
         <v>2.664</v>
       </c>
       <c r="J9">
-        <v>0.848</v>
+        <v>0.955</v>
       </c>
       <c r="K9">
-        <v>0.399</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8671,10 +8671,10 @@
         <v>9.226000000000001</v>
       </c>
       <c r="J10">
-        <v>2.417</v>
+        <v>2.135</v>
       </c>
       <c r="K10">
-        <v>0.018</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8706,10 +8706,10 @@
         <v>0.918</v>
       </c>
       <c r="J11">
-        <v>0.205</v>
+        <v>0.154</v>
       </c>
       <c r="K11">
-        <v>0.838</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8741,10 +8741,10 @@
         <v>-11.589</v>
       </c>
       <c r="J12">
-        <v>-2.96</v>
+        <v>-2.68</v>
       </c>
       <c r="K12">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8776,10 +8776,10 @@
         <v>-4.121</v>
       </c>
       <c r="J13">
-        <v>-1.044</v>
+        <v>-0.657</v>
       </c>
       <c r="K13">
-        <v>0.3</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8811,10 +8811,10 @@
         <v>-0.091</v>
       </c>
       <c r="J14">
-        <v>-1.581</v>
+        <v>-1.36</v>
       </c>
       <c r="K14">
-        <v>0.118</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8846,10 +8846,10 @@
         <v>0.02</v>
       </c>
       <c r="J15">
-        <v>0.334</v>
+        <v>0.251</v>
       </c>
       <c r="K15">
-        <v>0.739</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8881,10 +8881,10 @@
         <v>-0.06900000000000001</v>
       </c>
       <c r="J16">
-        <v>-1.111</v>
+        <v>-0.803</v>
       </c>
       <c r="K16">
-        <v>0.27</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8916,10 +8916,10 @@
         <v>0.125</v>
       </c>
       <c r="J17">
-        <v>1.056</v>
+        <v>0.779</v>
       </c>
       <c r="K17">
-        <v>0.294</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8951,10 +8951,10 @@
         <v>0.091</v>
       </c>
       <c r="J18">
-        <v>0.761</v>
+        <v>0.856</v>
       </c>
       <c r="K18">
-        <v>0.449</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8986,10 +8986,10 @@
         <v>-0.08</v>
       </c>
       <c r="J19">
-        <v>-0.676</v>
+        <v>-0.537</v>
       </c>
       <c r="K19">
-        <v>0.501</v>
+        <v>0.592</v>
       </c>
     </row>
   </sheetData>
@@ -9068,10 +9068,10 @@
         <v>-1.653</v>
       </c>
       <c r="H2">
-        <v>-0.368</v>
+        <v>-0.35</v>
       </c>
       <c r="I2">
-        <v>0.713</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9097,10 +9097,10 @@
         <v>1.991</v>
       </c>
       <c r="H3">
-        <v>0.483</v>
+        <v>0.508</v>
       </c>
       <c r="I3">
-        <v>0.63</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9126,10 +9126,10 @@
         <v>-4.084</v>
       </c>
       <c r="H4">
-        <v>-0.737</v>
+        <v>-1.064</v>
       </c>
       <c r="I4">
-        <v>0.462</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9155,10 +9155,10 @@
         <v>3.273</v>
       </c>
       <c r="H5">
-        <v>0.533</v>
+        <v>0.465</v>
       </c>
       <c r="I5">
-        <v>0.595</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9184,10 +9184,10 @@
         <v>8.593</v>
       </c>
       <c r="H6">
-        <v>1.343</v>
+        <v>1.249</v>
       </c>
       <c r="I6">
-        <v>0.181</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9213,10 +9213,10 @@
         <v>1.545</v>
       </c>
       <c r="H7">
-        <v>0.24</v>
+        <v>0.243</v>
       </c>
       <c r="I7">
-        <v>0.8110000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9242,10 +9242,10 @@
         <v>1.36</v>
       </c>
       <c r="H8">
-        <v>0.65</v>
+        <v>0.702</v>
       </c>
       <c r="I8">
-        <v>0.516</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9271,10 +9271,10 @@
         <v>-0.677</v>
       </c>
       <c r="H9">
-        <v>-0.338</v>
+        <v>-0.328</v>
       </c>
       <c r="I9">
-        <v>0.736</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9300,10 +9300,10 @@
         <v>2.626</v>
       </c>
       <c r="H10">
-        <v>1.082</v>
+        <v>1.369</v>
       </c>
       <c r="I10">
-        <v>0.281</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9329,10 +9329,10 @@
         <v>0.655</v>
       </c>
       <c r="H11">
-        <v>0.252</v>
+        <v>0.209</v>
       </c>
       <c r="I11">
-        <v>0.801</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9358,10 +9358,10 @@
         <v>-3.067</v>
       </c>
       <c r="H12">
-        <v>-1.136</v>
+        <v>-0.96</v>
       </c>
       <c r="I12">
-        <v>0.257</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9387,10 +9387,10 @@
         <v>-1.016</v>
       </c>
       <c r="H13">
-        <v>-0.373</v>
+        <v>-0.371</v>
       </c>
       <c r="I13">
-        <v>0.71</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9416,10 +9416,10 @@
         <v>-0.058</v>
       </c>
       <c r="H14">
-        <v>-1.65</v>
+        <v>-2.069</v>
       </c>
       <c r="I14">
-        <v>0.101</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9445,10 +9445,10 @@
         <v>-0.015</v>
       </c>
       <c r="H15">
-        <v>-0.43</v>
+        <v>-0.438</v>
       </c>
       <c r="I15">
-        <v>0.668</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9474,10 +9474,10 @@
         <v>0.021</v>
       </c>
       <c r="H16">
-        <v>0.396</v>
+        <v>0.601</v>
       </c>
       <c r="I16">
-        <v>0.6929999999999999</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -9503,10 +9503,10 @@
         <v>0.099</v>
       </c>
       <c r="H17">
-        <v>1.502</v>
+        <v>1.299</v>
       </c>
       <c r="I17">
-        <v>0.135</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9532,10 +9532,10 @@
         <v>0.151</v>
       </c>
       <c r="H18">
-        <v>2.113</v>
+        <v>2.421</v>
       </c>
       <c r="I18">
-        <v>0.036</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9561,10 +9561,10 @@
         <v>-0.062</v>
       </c>
       <c r="H19">
-        <v>-0.85</v>
+        <v>-0.6840000000000001</v>
       </c>
       <c r="I19">
-        <v>0.396</v>
+        <v>0.494</v>
       </c>
     </row>
   </sheetData>
@@ -9643,10 +9643,10 @@
         <v>-0.482</v>
       </c>
       <c r="H2">
-        <v>-0.093</v>
+        <v>-0.094</v>
       </c>
       <c r="I2">
-        <v>0.926</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9672,10 +9672,10 @@
         <v>-0.74</v>
       </c>
       <c r="H3">
-        <v>-0.156</v>
+        <v>-0.153</v>
       </c>
       <c r="I3">
-        <v>0.877</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9701,10 +9701,10 @@
         <v>-4.335</v>
       </c>
       <c r="H4">
-        <v>-0.678</v>
+        <v>-0.838</v>
       </c>
       <c r="I4">
-        <v>0.498</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9730,10 +9730,10 @@
         <v>-1.207</v>
       </c>
       <c r="H5">
-        <v>-0.17</v>
+        <v>-0.161</v>
       </c>
       <c r="I5">
-        <v>0.865</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9762,7 +9762,7 @@
         <v>0.889</v>
       </c>
       <c r="I6">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9788,10 +9788,10 @@
         <v>2.123</v>
       </c>
       <c r="H7">
-        <v>0.286</v>
+        <v>0.242</v>
       </c>
       <c r="I7">
-        <v>0.776</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9817,10 +9817,10 @@
         <v>0.653</v>
       </c>
       <c r="H8">
-        <v>0.27</v>
+        <v>0.336</v>
       </c>
       <c r="I8">
-        <v>0.787</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9846,10 +9846,10 @@
         <v>0.792</v>
       </c>
       <c r="H9">
-        <v>0.343</v>
+        <v>0.31</v>
       </c>
       <c r="I9">
-        <v>0.732</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9875,10 +9875,10 @@
         <v>2.995</v>
       </c>
       <c r="H10">
-        <v>1.07</v>
+        <v>1.228</v>
       </c>
       <c r="I10">
-        <v>0.286</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9904,10 +9904,10 @@
         <v>2.188</v>
       </c>
       <c r="H11">
-        <v>0.731</v>
+        <v>0.707</v>
       </c>
       <c r="I11">
-        <v>0.466</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9933,10 +9933,10 @@
         <v>-1.94</v>
       </c>
       <c r="H12">
-        <v>-0.621</v>
+        <v>-0.529</v>
       </c>
       <c r="I12">
-        <v>0.535</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9962,10 +9962,10 @@
         <v>-1.278</v>
       </c>
       <c r="H13">
-        <v>-0.407</v>
+        <v>-0.379</v>
       </c>
       <c r="I13">
-        <v>0.6850000000000001</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9991,10 +9991,10 @@
         <v>-0.035</v>
       </c>
       <c r="H14">
-        <v>-0.861</v>
+        <v>-1.012</v>
       </c>
       <c r="I14">
-        <v>0.391</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10020,10 +10020,10 @@
         <v>-0.005</v>
       </c>
       <c r="H15">
-        <v>-0.131</v>
+        <v>-0.157</v>
       </c>
       <c r="I15">
-        <v>0.896</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10049,10 +10049,10 @@
         <v>0.035</v>
       </c>
       <c r="H16">
-        <v>0.586</v>
+        <v>0.85</v>
       </c>
       <c r="I16">
-        <v>0.5580000000000001</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -10078,10 +10078,10 @@
         <v>0.125</v>
       </c>
       <c r="H17">
-        <v>1.644</v>
+        <v>1.435</v>
       </c>
       <c r="I17">
-        <v>0.102</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -10107,10 +10107,10 @@
         <v>0.109</v>
       </c>
       <c r="H18">
-        <v>1.316</v>
+        <v>1.43</v>
       </c>
       <c r="I18">
-        <v>0.19</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -10136,10 +10136,10 @@
         <v>-0.097</v>
       </c>
       <c r="H19">
-        <v>-1.148</v>
+        <v>-0.977</v>
       </c>
       <c r="I19">
-        <v>0.253</v>
+        <v>0.329</v>
       </c>
     </row>
   </sheetData>
@@ -10225,10 +10225,10 @@
         <v>-2.405</v>
       </c>
       <c r="I2">
-        <v>-0.404</v>
+        <v>-0.364</v>
       </c>
       <c r="J2">
-        <v>0.6870000000000001</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10260,7 +10260,7 @@
         <v>-0.421</v>
       </c>
       <c r="J3">
-        <v>0.675</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10292,7 +10292,7 @@
         <v>-0.902</v>
       </c>
       <c r="J4">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10321,10 +10321,10 @@
         <v>-4.747</v>
       </c>
       <c r="I5">
-        <v>-0.583</v>
+        <v>-0.596</v>
       </c>
       <c r="J5">
-        <v>0.5600000000000001</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10353,10 +10353,10 @@
         <v>5.812</v>
       </c>
       <c r="I6">
-        <v>0.6830000000000001</v>
+        <v>0.642</v>
       </c>
       <c r="J6">
-        <v>0.496</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10385,10 +10385,10 @@
         <v>0.105</v>
       </c>
       <c r="I7">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="J7">
-        <v>0.99</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10417,10 +10417,10 @@
         <v>0.595</v>
       </c>
       <c r="I8">
-        <v>0.214</v>
+        <v>0.191</v>
       </c>
       <c r="J8">
-        <v>0.831</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10449,10 +10449,10 @@
         <v>1.378</v>
       </c>
       <c r="I9">
-        <v>0.519</v>
+        <v>0.522</v>
       </c>
       <c r="J9">
-        <v>0.604</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10481,10 +10481,10 @@
         <v>3.54</v>
       </c>
       <c r="I10">
-        <v>1.101</v>
+        <v>1.035</v>
       </c>
       <c r="J10">
-        <v>0.273</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10513,10 +10513,10 @@
         <v>4.093</v>
       </c>
       <c r="I11">
-        <v>1.192</v>
+        <v>1.286</v>
       </c>
       <c r="J11">
-        <v>0.235</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10545,10 +10545,10 @@
         <v>-1.885</v>
       </c>
       <c r="I12">
-        <v>-0.525</v>
+        <v>-0.44</v>
       </c>
       <c r="J12">
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10577,10 +10577,10 @@
         <v>0.2</v>
       </c>
       <c r="I13">
-        <v>0.055</v>
+        <v>0.045</v>
       </c>
       <c r="J13">
-        <v>0.956</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10609,10 +10609,10 @@
         <v>-0.058</v>
       </c>
       <c r="I14">
-        <v>-1.241</v>
+        <v>-1.198</v>
       </c>
       <c r="J14">
-        <v>0.216</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10641,10 +10641,10 @@
         <v>-0.011</v>
       </c>
       <c r="I15">
-        <v>-0.226</v>
+        <v>-0.24</v>
       </c>
       <c r="J15">
-        <v>0.821</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10673,10 +10673,10 @@
         <v>-0.025</v>
       </c>
       <c r="I16">
-        <v>-0.359</v>
+        <v>-0.473</v>
       </c>
       <c r="J16">
-        <v>0.72</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10705,10 +10705,10 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I17">
-        <v>0.781</v>
+        <v>0.705</v>
       </c>
       <c r="J17">
-        <v>0.436</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10737,10 +10737,10 @@
         <v>0.108</v>
       </c>
       <c r="I18">
-        <v>1.126</v>
+        <v>1.066</v>
       </c>
       <c r="J18">
-        <v>0.262</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10769,10 +10769,10 @@
         <v>-0.1</v>
       </c>
       <c r="I19">
-        <v>-1.035</v>
+        <v>-1.112</v>
       </c>
       <c r="J19">
-        <v>0.302</v>
+        <v>0.266</v>
       </c>
     </row>
   </sheetData>
@@ -10851,10 +10851,10 @@
         <v>-4.624</v>
       </c>
       <c r="H2">
-        <v>-1.363</v>
+        <v>-1.299</v>
       </c>
       <c r="I2">
-        <v>0.175</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10880,10 +10880,10 @@
         <v>2.642</v>
       </c>
       <c r="H3">
-        <v>0.865</v>
+        <v>0.889</v>
       </c>
       <c r="I3">
-        <v>0.389</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10909,10 +10909,10 @@
         <v>-3.26</v>
       </c>
       <c r="H4">
-        <v>-0.779</v>
+        <v>-0.848</v>
       </c>
       <c r="I4">
-        <v>0.438</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10938,10 +10938,10 @@
         <v>-1.622</v>
       </c>
       <c r="H5">
-        <v>-0.354</v>
+        <v>-0.357</v>
       </c>
       <c r="I5">
-        <v>0.724</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10967,10 +10967,10 @@
         <v>0.702</v>
       </c>
       <c r="H6">
-        <v>0.144</v>
+        <v>0.141</v>
       </c>
       <c r="I6">
-        <v>0.886</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -10996,10 +10996,10 @@
         <v>-7.185</v>
       </c>
       <c r="H7">
-        <v>-1.43</v>
+        <v>-1.208</v>
       </c>
       <c r="I7">
-        <v>0.155</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11025,10 +11025,10 @@
         <v>1.84</v>
       </c>
       <c r="H8">
-        <v>1.152</v>
+        <v>1.285</v>
       </c>
       <c r="I8">
-        <v>0.251</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11054,10 +11054,10 @@
         <v>-1.07</v>
       </c>
       <c r="H9">
-        <v>-0.6889999999999999</v>
+        <v>-0.837</v>
       </c>
       <c r="I9">
-        <v>0.492</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11083,10 +11083,10 @@
         <v>1.99</v>
       </c>
       <c r="H10">
-        <v>1.069</v>
+        <v>1.261</v>
       </c>
       <c r="I10">
-        <v>0.287</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11112,10 +11112,10 @@
         <v>1.106</v>
       </c>
       <c r="H11">
+        <v>0.595</v>
+      </c>
+      <c r="I11">
         <v>0.552</v>
-      </c>
-      <c r="I11">
-        <v>0.582</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11141,10 +11141,10 @@
         <v>-0.448</v>
       </c>
       <c r="H12">
-        <v>-0.213</v>
+        <v>-0.194</v>
       </c>
       <c r="I12">
-        <v>0.832</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11170,10 +11170,10 @@
         <v>2.437</v>
       </c>
       <c r="H13">
-        <v>1.139</v>
+        <v>0.967</v>
       </c>
       <c r="I13">
-        <v>0.257</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11199,10 +11199,10 @@
         <v>-0.053</v>
       </c>
       <c r="H14">
-        <v>-1.951</v>
+        <v>-1.962</v>
       </c>
       <c r="I14">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11228,10 +11228,10 @@
         <v>-0.029</v>
       </c>
       <c r="H15">
-        <v>-1.077</v>
+        <v>-1.19</v>
       </c>
       <c r="I15">
-        <v>0.284</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11257,10 +11257,10 @@
         <v>0.021</v>
       </c>
       <c r="H16">
-        <v>0.554</v>
+        <v>0.657</v>
       </c>
       <c r="I16">
-        <v>0.581</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11286,10 +11286,10 @@
         <v>0.016</v>
       </c>
       <c r="H17">
-        <v>0.336</v>
+        <v>0.296</v>
       </c>
       <c r="I17">
-        <v>0.737</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11315,10 +11315,10 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="H18">
-        <v>1.552</v>
+        <v>1.358</v>
       </c>
       <c r="I18">
-        <v>0.123</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11344,10 +11344,10 @@
         <v>0.058</v>
       </c>
       <c r="H19">
-        <v>1.023</v>
+        <v>1.118</v>
       </c>
       <c r="I19">
-        <v>0.308</v>
+        <v>0.263</v>
       </c>
     </row>
   </sheetData>
@@ -11433,10 +11433,10 @@
         <v>-7.322</v>
       </c>
       <c r="I2">
-        <v>-1.741</v>
+        <v>-1.529</v>
       </c>
       <c r="J2">
-        <v>0.08400000000000001</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11465,10 +11465,10 @@
         <v>1.787</v>
       </c>
       <c r="I3">
-        <v>0.469</v>
+        <v>0.43</v>
       </c>
       <c r="J3">
-        <v>0.64</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11497,10 +11497,10 @@
         <v>-3.932</v>
       </c>
       <c r="I4">
-        <v>-0.754</v>
+        <v>-0.79</v>
       </c>
       <c r="J4">
-        <v>0.452</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11529,10 +11529,10 @@
         <v>-1.015</v>
       </c>
       <c r="I5">
-        <v>-0.178</v>
+        <v>-0.173</v>
       </c>
       <c r="J5">
-        <v>0.859</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11561,10 +11561,10 @@
         <v>7.821</v>
       </c>
       <c r="I6">
-        <v>1.296</v>
+        <v>1.438</v>
       </c>
       <c r="J6">
-        <v>0.197</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11593,10 +11593,10 @@
         <v>-5.006</v>
       </c>
       <c r="I7">
-        <v>-0.796</v>
+        <v>-0.678</v>
       </c>
       <c r="J7">
-        <v>0.427</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11625,10 +11625,10 @@
         <v>3.151</v>
       </c>
       <c r="I8">
-        <v>1.592</v>
+        <v>1.666</v>
       </c>
       <c r="J8">
-        <v>0.114</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11657,10 +11657,10 @@
         <v>0.346</v>
       </c>
       <c r="I9">
-        <v>0.179</v>
+        <v>0.185</v>
       </c>
       <c r="J9">
-        <v>0.858</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11689,10 +11689,10 @@
         <v>3.122</v>
       </c>
       <c r="I10">
-        <v>1.35</v>
+        <v>1.438</v>
       </c>
       <c r="J10">
-        <v>0.179</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11721,10 +11721,10 @@
         <v>1.433</v>
       </c>
       <c r="I11">
-        <v>0.575</v>
+        <v>0.549</v>
       </c>
       <c r="J11">
-        <v>0.5669999999999999</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11753,10 +11753,10 @@
         <v>-3.422</v>
       </c>
       <c r="I12">
-        <v>-1.314</v>
+        <v>-1.319</v>
       </c>
       <c r="J12">
-        <v>0.191</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11785,10 +11785,10 @@
         <v>1.317</v>
       </c>
       <c r="I13">
-        <v>0.493</v>
+        <v>0.443</v>
       </c>
       <c r="J13">
-        <v>0.623</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11817,10 +11817,10 @@
         <v>-0.08500000000000001</v>
       </c>
       <c r="I14">
-        <v>-2.559</v>
+        <v>-2.046</v>
       </c>
       <c r="J14">
-        <v>0.012</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11849,10 +11849,10 @@
         <v>-0.047</v>
       </c>
       <c r="I15">
-        <v>-1.405</v>
+        <v>-1.257</v>
       </c>
       <c r="J15">
-        <v>0.162</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11881,10 +11881,10 @@
         <v>0.014</v>
       </c>
       <c r="I16">
-        <v>0.305</v>
+        <v>0.391</v>
       </c>
       <c r="J16">
-        <v>0.761</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11913,10 +11913,10 @@
         <v>0.062</v>
       </c>
       <c r="I17">
-        <v>1.034</v>
+        <v>0.958</v>
       </c>
       <c r="J17">
-        <v>0.303</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11945,10 +11945,10 @@
         <v>0.124</v>
       </c>
       <c r="I18">
-        <v>1.839</v>
+        <v>1.687</v>
       </c>
       <c r="J18">
-        <v>0.068</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11977,10 +11977,10 @@
         <v>0.05</v>
       </c>
       <c r="I19">
-        <v>0.704</v>
+        <v>0.656</v>
       </c>
       <c r="J19">
-        <v>0.483</v>
+        <v>0.512</v>
       </c>
     </row>
   </sheetData>
@@ -12066,10 +12066,10 @@
         <v>-6.746</v>
       </c>
       <c r="I2">
-        <v>-1.439</v>
+        <v>-1.44</v>
       </c>
       <c r="J2">
-        <v>0.152</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12098,10 +12098,10 @@
         <v>-0.392</v>
       </c>
       <c r="I3">
-        <v>-0.093</v>
+        <v>-0.077</v>
       </c>
       <c r="J3">
-        <v>0.926</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12130,10 +12130,10 @@
         <v>-5.214</v>
       </c>
       <c r="I4">
-        <v>-0.901</v>
+        <v>-0.799</v>
       </c>
       <c r="J4">
-        <v>0.369</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12162,10 +12162,10 @@
         <v>-5.023</v>
       </c>
       <c r="I5">
-        <v>-0.795</v>
+        <v>-0.665</v>
       </c>
       <c r="J5">
-        <v>0.428</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12194,10 +12194,10 @@
         <v>6.649</v>
       </c>
       <c r="I6">
-        <v>0.99</v>
+        <v>0.829</v>
       </c>
       <c r="J6">
-        <v>0.324</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12226,10 +12226,10 @@
         <v>-7.332</v>
       </c>
       <c r="I7">
-        <v>-1.052</v>
+        <v>-0.754</v>
       </c>
       <c r="J7">
-        <v>0.295</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12258,10 +12258,10 @@
         <v>2.8</v>
       </c>
       <c r="I8">
-        <v>1.269</v>
+        <v>1.578</v>
       </c>
       <c r="J8">
-        <v>0.206</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12290,10 +12290,10 @@
         <v>1.14</v>
       </c>
       <c r="I9">
-        <v>0.531</v>
+        <v>0.442</v>
       </c>
       <c r="J9">
-        <v>0.597</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12322,10 +12322,10 @@
         <v>3.4</v>
       </c>
       <c r="I10">
-        <v>1.323</v>
+        <v>1.182</v>
       </c>
       <c r="J10">
-        <v>0.188</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12354,10 +12354,10 @@
         <v>3.065</v>
       </c>
       <c r="I11">
-        <v>1.11</v>
+        <v>1.039</v>
       </c>
       <c r="J11">
-        <v>0.269</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12386,10 +12386,10 @@
         <v>-2.571</v>
       </c>
       <c r="I12">
-        <v>-0.886</v>
+        <v>-0.648</v>
       </c>
       <c r="J12">
-        <v>0.377</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12418,10 +12418,10 @@
         <v>2.099</v>
       </c>
       <c r="I13">
-        <v>0.708</v>
+        <v>0.512</v>
       </c>
       <c r="J13">
-        <v>0.48</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12450,10 +12450,10 @@
         <v>-0.068</v>
       </c>
       <c r="I14">
-        <v>-1.829</v>
+        <v>-1.75</v>
       </c>
       <c r="J14">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12482,10 +12482,10 @@
         <v>-0.042</v>
       </c>
       <c r="I15">
-        <v>-1.13</v>
+        <v>-1.043</v>
       </c>
       <c r="J15">
-        <v>0.26</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12514,10 +12514,10 @@
         <v>0.024</v>
       </c>
       <c r="I16">
-        <v>0.46</v>
+        <v>0.722</v>
       </c>
       <c r="J16">
-        <v>0.647</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12546,10 +12546,10 @@
         <v>0.062</v>
       </c>
       <c r="I17">
-        <v>0.925</v>
+        <v>0.9</v>
       </c>
       <c r="J17">
-        <v>0.357</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12578,10 +12578,10 @@
         <v>0.074</v>
       </c>
       <c r="I18">
-        <v>0.977</v>
+        <v>0.998</v>
       </c>
       <c r="J18">
-        <v>0.33</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12610,10 +12610,10 @@
         <v>0.005</v>
       </c>
       <c r="I19">
-        <v>0.061</v>
+        <v>0.065</v>
       </c>
       <c r="J19">
-        <v>0.951</v>
+        <v>0.948</v>
       </c>
     </row>
   </sheetData>
@@ -12706,10 +12706,10 @@
         <v>-8.397</v>
       </c>
       <c r="J2">
-        <v>-1.485</v>
+        <v>-1.168</v>
       </c>
       <c r="K2">
-        <v>0.14</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -12741,10 +12741,10 @@
         <v>-0.068</v>
       </c>
       <c r="J3">
-        <v>-0.013</v>
+        <v>-0.012</v>
       </c>
       <c r="K3">
-        <v>0.989</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -12776,10 +12776,10 @@
         <v>-10.282</v>
       </c>
       <c r="J4">
-        <v>-1.48</v>
+        <v>-1.184</v>
       </c>
       <c r="K4">
-        <v>0.141</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -12811,10 +12811,10 @@
         <v>-9.583</v>
       </c>
       <c r="J5">
-        <v>-1.26</v>
+        <v>-1.085</v>
       </c>
       <c r="K5">
-        <v>0.21</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -12846,10 +12846,10 @@
         <v>5.121</v>
       </c>
       <c r="J6">
-        <v>0.63</v>
+        <v>0.606</v>
       </c>
       <c r="K6">
-        <v>0.53</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -12881,10 +12881,10 @@
         <v>-11.483</v>
       </c>
       <c r="J7">
-        <v>-1.368</v>
+        <v>-0.865</v>
       </c>
       <c r="K7">
-        <v>0.174</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -12916,10 +12916,10 @@
         <v>2.955</v>
       </c>
       <c r="J8">
-        <v>1.108</v>
+        <v>0.919</v>
       </c>
       <c r="K8">
-        <v>0.27</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -12951,10 +12951,10 @@
         <v>0.635</v>
       </c>
       <c r="J9">
-        <v>0.245</v>
+        <v>0.215</v>
       </c>
       <c r="K9">
-        <v>0.8070000000000001</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -12986,10 +12986,10 @@
         <v>5.042</v>
       </c>
       <c r="J10">
-        <v>1.631</v>
+        <v>1.283</v>
       </c>
       <c r="K10">
-        <v>0.105</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13021,10 +13021,10 @@
         <v>5.517</v>
       </c>
       <c r="J11">
-        <v>1.664</v>
+        <v>1.636</v>
       </c>
       <c r="K11">
-        <v>0.098</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13056,10 +13056,10 @@
         <v>-2.288</v>
       </c>
       <c r="J12">
-        <v>-0.652</v>
+        <v>-0.53</v>
       </c>
       <c r="K12">
-        <v>0.516</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13091,10 +13091,10 @@
         <v>3.927</v>
       </c>
       <c r="J13">
-        <v>1.1</v>
+        <v>0.704</v>
       </c>
       <c r="K13">
-        <v>0.273</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13126,10 +13126,10 @@
         <v>-0.077</v>
       </c>
       <c r="J14">
-        <v>-1.701</v>
+        <v>-1.441</v>
       </c>
       <c r="K14">
-        <v>0.091</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13161,10 +13161,10 @@
         <v>-0.038</v>
       </c>
       <c r="J15">
-        <v>-0.847</v>
+        <v>-0.921</v>
       </c>
       <c r="K15">
-        <v>0.398</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13196,10 +13196,10 @@
         <v>0.006</v>
       </c>
       <c r="J16">
-        <v>0.089</v>
+        <v>0.122</v>
       </c>
       <c r="K16">
-        <v>0.93</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13231,10 +13231,10 @@
         <v>0.037</v>
       </c>
       <c r="J17">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="K17">
-        <v>0.646</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13266,10 +13266,10 @@
         <v>0.057</v>
       </c>
       <c r="J18">
-        <v>0.622</v>
+        <v>0.703</v>
       </c>
       <c r="K18">
-        <v>0.535</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -13301,10 +13301,10 @@
         <v>-0.004</v>
       </c>
       <c r="J19">
-        <v>-0.046</v>
+        <v>-0.064</v>
       </c>
       <c r="K19">
-        <v>0.963</v>
+        <v>0.949</v>
       </c>
     </row>
   </sheetData>
@@ -13390,10 +13390,10 @@
         <v>-3.643</v>
       </c>
       <c r="I2">
-        <v>-1.092</v>
+        <v>-1.045</v>
       </c>
       <c r="J2">
-        <v>0.277</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13422,10 +13422,10 @@
         <v>3.38</v>
       </c>
       <c r="I3">
-        <v>1.17</v>
+        <v>1.108</v>
       </c>
       <c r="J3">
-        <v>0.244</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13454,10 +13454,10 @@
         <v>0.235</v>
       </c>
       <c r="I4">
-        <v>0.055</v>
+        <v>0.059</v>
       </c>
       <c r="J4">
-        <v>0.956</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13486,10 +13486,10 @@
         <v>3.753</v>
       </c>
       <c r="I5">
-        <v>0.789</v>
+        <v>0.902</v>
       </c>
       <c r="J5">
-        <v>0.432</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13518,10 +13518,10 @@
         <v>5.115</v>
       </c>
       <c r="I6">
-        <v>1.035</v>
+        <v>0.931</v>
       </c>
       <c r="J6">
-        <v>0.303</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13550,10 +13550,10 @@
         <v>0.666</v>
       </c>
       <c r="I7">
-        <v>0.127</v>
+        <v>0.099</v>
       </c>
       <c r="J7">
-        <v>0.899</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13582,10 +13582,10 @@
         <v>1.903</v>
       </c>
       <c r="I8">
-        <v>1.176</v>
+        <v>1.447</v>
       </c>
       <c r="J8">
-        <v>0.242</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13614,10 +13614,10 @@
         <v>-1.282</v>
       </c>
       <c r="I9">
-        <v>-0.8129999999999999</v>
+        <v>-0.806</v>
       </c>
       <c r="J9">
-        <v>0.418</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13646,10 +13646,10 @@
         <v>1.265</v>
       </c>
       <c r="I10">
-        <v>0.652</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="J10">
-        <v>0.516</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -13678,10 +13678,10 @@
         <v>-1.292</v>
       </c>
       <c r="I11">
-        <v>-0.625</v>
+        <v>-0.726</v>
       </c>
       <c r="J11">
-        <v>0.533</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -13710,10 +13710,10 @@
         <v>-2.44</v>
       </c>
       <c r="I12">
-        <v>-1.142</v>
+        <v>-0.984</v>
       </c>
       <c r="J12">
-        <v>0.256</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13742,10 +13742,10 @@
         <v>-0.603</v>
       </c>
       <c r="I13">
-        <v>-0.267</v>
+        <v>-0.203</v>
       </c>
       <c r="J13">
-        <v>0.79</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13774,10 +13774,10 @@
         <v>-0.042</v>
       </c>
       <c r="I14">
-        <v>-1.506</v>
+        <v>-1.709</v>
       </c>
       <c r="J14">
-        <v>0.135</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13806,10 +13806,10 @@
         <v>-0.028</v>
       </c>
       <c r="I15">
-        <v>-1.006</v>
+        <v>-0.836</v>
       </c>
       <c r="J15">
-        <v>0.317</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13838,10 +13838,10 @@
         <v>0.002</v>
       </c>
       <c r="I16">
-        <v>0.049</v>
+        <v>0.039</v>
       </c>
       <c r="J16">
-        <v>0.961</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13870,10 +13870,10 @@
         <v>0.02</v>
       </c>
       <c r="I17">
-        <v>0.395</v>
+        <v>0.301</v>
       </c>
       <c r="J17">
-        <v>0.6929999999999999</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13902,10 +13902,10 @@
         <v>0.062</v>
       </c>
       <c r="I18">
-        <v>1.097</v>
+        <v>1.135</v>
       </c>
       <c r="J18">
-        <v>0.275</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13934,10 +13934,10 @@
         <v>0.048</v>
       </c>
       <c r="I19">
-        <v>0.887</v>
+        <v>0.678</v>
       </c>
       <c r="J19">
-        <v>0.377</v>
+        <v>0.498</v>
       </c>
     </row>
   </sheetData>
